--- a/Libro5.xlsx
+++ b/Libro5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Estudiante\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Estudiante\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF65EE8A-CE79-4646-BBAF-0335096842B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F77A12-FB01-49E0-8C68-BE28B49D9A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F14CFB7D-911E-4C65-A632-3D6AECFF8718}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Productos</t>
   </si>
@@ -136,19 +136,91 @@
   </si>
   <si>
     <t>Largo</t>
+  </si>
+  <si>
+    <t>Grados de alcohol</t>
+  </si>
+  <si>
+    <t>Correo del proveedor</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Playera Fanatics Dodgers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF041E42"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Playera easton Algodón</t>
+  </si>
+  <si>
+    <t>En la compra de $900 de producto es gratis</t>
+  </si>
+  <si>
+    <t>24pz</t>
+  </si>
+  <si>
+    <t>No hay</t>
+  </si>
+  <si>
+    <t>Grande y extra grande</t>
+  </si>
+  <si>
+    <t>Gris</t>
+  </si>
+  <si>
+    <t>Sin datos</t>
+  </si>
+  <si>
+    <t>Algodon</t>
+  </si>
+  <si>
+    <t>30 días de devolución</t>
+  </si>
+  <si>
+    <t>Tienda Easton</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF041E42"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,8 +243,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,15 +583,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961AEFD6-F6F1-4977-A751-9FC16E319E83}">
-  <dimension ref="A1:AU1"/>
+  <dimension ref="A1:BC4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2:AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="14" width="11.42578125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -511,95 +610,214 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>16</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>20</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>21</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>23</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>24</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AL1" t="s">
         <v>25</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AO1" t="s">
         <v>27</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AP1" t="s">
         <v>28</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>29</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
         <v>30</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AU1" t="s">
         <v>31</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AW1" t="s">
         <v>32</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AX1" t="s">
         <v>33</v>
       </c>
+      <c r="AY1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="4">
+        <v>190</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7">
+        <v>0</v>
+      </c>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="7"/>
+      <c r="W2" s="3">
+        <v>0</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="6"/>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G3:J4"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Libro5.xlsx
+++ b/Libro5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Estudiante\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F77A12-FB01-49E0-8C68-BE28B49D9A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FE892A-D6AF-4C59-B8C7-46FC155A6620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F14CFB7D-911E-4C65-A632-3D6AECFF8718}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
   <si>
     <t>Productos</t>
   </si>
@@ -108,16 +108,10 @@
     <t>Tipo de pago</t>
   </si>
   <si>
-    <t>Historial</t>
-  </si>
-  <si>
     <t>Recomendaciones</t>
   </si>
   <si>
     <t>Caducidad</t>
-  </si>
-  <si>
-    <t>Ingredientes</t>
   </si>
   <si>
     <t>Unidades</t>
@@ -181,9 +175,6 @@
     <t>Grande y extra grande</t>
   </si>
   <si>
-    <t>Gris</t>
-  </si>
-  <si>
     <t>Sin datos</t>
   </si>
   <si>
@@ -194,6 +185,60 @@
   </si>
   <si>
     <t>Tienda Easton</t>
+  </si>
+  <si>
+    <t>Blanca</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 667 716 6963</t>
+  </si>
+  <si>
+    <t>Prol. Álvaro Obregón 415-Sur, Miguel Alemán, 80200 Culiacán Rosales, Sin.</t>
+  </si>
+  <si>
+    <t>2 67346 36462 535</t>
+  </si>
+  <si>
+    <t>Ropa</t>
+  </si>
+  <si>
+    <t>Fanatics</t>
+  </si>
+  <si>
+    <t>Tarjeta de credito o debito</t>
+  </si>
+  <si>
+    <t>No lavar con algun blanqueante</t>
+  </si>
+  <si>
+    <t>Ingrediente</t>
+  </si>
+  <si>
+    <t>24 pz</t>
+  </si>
+  <si>
+    <t>sportsfanatic@live.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bat Beisbol R232AN Rawlings Fresno Profesional JUVENI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>L</t>
+    </r>
+  </si>
+  <si>
+    <t>0'</t>
   </si>
 </sst>
 </file>
@@ -203,7 +248,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +264,24 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -240,19 +303,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -261,16 +319,38 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -583,171 +663,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961AEFD6-F6F1-4977-A751-9FC16E319E83}">
-  <dimension ref="A1:BC4"/>
+  <dimension ref="A1:BC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2:AB2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="14" width="11.42578125" style="2"/>
+    <col min="11" max="14" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="2" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="S1" t="s">
+      <c r="R1" s="4"/>
+      <c r="S1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="U1" t="s">
+      <c r="T1" s="4"/>
+      <c r="U1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="W1" t="s">
+      <c r="V1" s="4"/>
+      <c r="W1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AX1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="BA1" t="s">
+    </row>
+    <row r="2" spans="1:55" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="B2" s="2">
+        <v>190</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:55" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="4">
-        <v>190</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>43</v>
+      <c r="N2" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R2" s="7"/>
       <c r="S2" s="7">
@@ -755,69 +851,1112 @@
       </c>
       <c r="T2" s="7"/>
       <c r="U2" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="V2" s="7"/>
-      <c r="W2" s="3">
-        <v>0</v>
-      </c>
-      <c r="X2" s="8" t="s">
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="6"/>
-      <c r="BA2" s="6"/>
-      <c r="BB2" s="6"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS2" s="9"/>
+      <c r="AT2" s="9"/>
+      <c r="AU2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AV2" s="9"/>
+      <c r="AW2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AX2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AY2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ2" s="9"/>
+      <c r="BA2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB2" s="9"/>
+      <c r="BC2" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="G3" s="7"/>
+    <row r="3" spans="1:55" s="5" customFormat="1" ht="78" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1350</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
+      <c r="L3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="9"/>
+      <c r="AV3" s="9"/>
+      <c r="AY3" s="9"/>
+      <c r="AZ3" s="9"/>
+      <c r="BA3" s="9"/>
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="G4" s="7"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="7">
+        <v>0</v>
+      </c>
+      <c r="T4" s="7"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4"/>
+      <c r="AZ9" s="4"/>
+      <c r="BA9" s="4"/>
+      <c r="BB9" s="4"/>
+      <c r="BC9" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="4"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="4"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="4"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="4"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="4"/>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="4"/>
+      <c r="BA11" s="4"/>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="4"/>
+      <c r="BA12" s="4"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="4"/>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="4"/>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="4"/>
+      <c r="AT16" s="4"/>
+      <c r="AU16" s="4"/>
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="4"/>
+      <c r="AX16" s="4"/>
+      <c r="AY16" s="4"/>
+      <c r="AZ16" s="4"/>
+      <c r="BA16" s="4"/>
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="4">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="85">
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="AY3:AZ3"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AJ2:AK2"/>
     <mergeCell ref="AL2:AM2"/>
     <mergeCell ref="AR2:AT2"/>
     <mergeCell ref="AU2:AV2"/>
     <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="G3:J4"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="BA2" r:id="rId1" xr:uid="{C68EC245-EC84-4475-AA3A-899D4A93B15E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Libro5.xlsx
+++ b/Libro5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Estudiante\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FE892A-D6AF-4C59-B8C7-46FC155A6620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643F4A02-AFF3-48B6-A385-F8CF2D474DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F14CFB7D-911E-4C65-A632-3D6AECFF8718}"/>
+    <workbookView xWindow="135" yWindow="735" windowWidth="14730" windowHeight="11385" xr2:uid="{F14CFB7D-911E-4C65-A632-3D6AECFF8718}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="64">
   <si>
     <t>Productos</t>
   </si>
@@ -238,7 +238,25 @@
     </r>
   </si>
   <si>
-    <t>0'</t>
+    <t>Spikes Beibol Softball</t>
+  </si>
+  <si>
+    <t>2pz</t>
+  </si>
+  <si>
+    <t>32 in</t>
+  </si>
+  <si>
+    <t>Madera</t>
+  </si>
+  <si>
+    <t>Fresno</t>
+  </si>
+  <si>
+    <t>Beisbolsport</t>
+  </si>
+  <si>
+    <t>951 198 50 33</t>
   </si>
 </sst>
 </file>
@@ -307,7 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -325,13 +343,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -346,6 +358,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -663,18 +687,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961AEFD6-F6F1-4977-A751-9FC16E319E83}">
-  <dimension ref="A1:BC16"/>
+  <dimension ref="A1:AP16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:J8"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="14" width="11.42578125" style="1"/>
+    <col min="7" max="7" width="45.7109375" customWidth="1"/>
+    <col min="8" max="11" width="11.42578125" style="1"/>
+    <col min="21" max="21" width="20.85546875" customWidth="1"/>
+    <col min="22" max="22" width="23" customWidth="1"/>
+    <col min="23" max="23" width="22.7109375" customWidth="1"/>
+    <col min="24" max="24" width="34.28515625" customWidth="1"/>
+    <col min="25" max="25" width="23" customWidth="1"/>
+    <col min="29" max="29" width="22.85546875" customWidth="1"/>
+    <col min="30" max="30" width="22.7109375" customWidth="1"/>
+    <col min="35" max="35" width="34.28515625" customWidth="1"/>
+    <col min="36" max="36" width="22.85546875" customWidth="1"/>
+    <col min="41" max="41" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -691,120 +726,107 @@
         <v>4</v>
       </c>
       <c r="F1" s="4"/>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="K1" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="M1" s="4"/>
       <c r="N1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4" t="s">
+      <c r="O1" s="4"/>
+      <c r="P1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="U1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V1" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="W1" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z1" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="AA1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD1" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="AE1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF1" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="AG1" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AH1" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AI1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK1" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="AL1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN1" s="4"/>
       <c r="AO1" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="AP1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AQ1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AR1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AY1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:55" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:42" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="2">
@@ -816,183 +838,193 @@
       <c r="D2" s="4">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="K2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7" t="s">
+      <c r="L2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7">
-        <v>0</v>
-      </c>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7" t="s">
+      <c r="O2" s="12"/>
+      <c r="P2" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="7"/>
-      <c r="W2" s="4">
-        <v>0</v>
-      </c>
-      <c r="X2" s="5" t="s">
+      <c r="S2" s="12"/>
+      <c r="T2" s="4">
+        <v>0</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="V2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7" t="s">
+      <c r="W2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="9" t="s">
+      <c r="X2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="7" t="s">
+      <c r="Y2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AH2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AA2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AJ2" s="9" t="s">
+      <c r="AC2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9" t="s">
+      <c r="AD2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AQ2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="9"/>
-      <c r="AU2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AV2" s="9"/>
-      <c r="AW2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AX2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AY2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AZ2" s="9"/>
-      <c r="BA2" s="10" t="s">
+      <c r="AH2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="BB2" s="9"/>
-      <c r="BC2" s="5">
+      <c r="AP2" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:55" s="5" customFormat="1" ht="78" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:42" s="5" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <v>1350</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="7" t="s">
+      <c r="E3" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="L3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9" t="s">
+      <c r="H3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="9"/>
-      <c r="AR3" s="9"/>
-      <c r="AS3" s="9"/>
-      <c r="AT3" s="9"/>
-      <c r="AU3" s="9"/>
-      <c r="AV3" s="9"/>
-      <c r="AY3" s="9"/>
-      <c r="AZ3" s="9"/>
-      <c r="BA3" s="9"/>
-      <c r="BB3" s="9"/>
-      <c r="BC3" s="5">
+      <c r="O3" s="15"/>
+      <c r="P3" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" s="15"/>
+      <c r="T3" s="5">
+        <v>0</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AH3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1001,67 +1033,74 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
         <v>39</v>
       </c>
       <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="7">
-        <v>0</v>
-      </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="4"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
+      <c r="AA4" s="4">
+        <v>0</v>
+      </c>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
+      <c r="AH4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI4" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
+      <c r="AK4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN4" s="15"/>
       <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="4">
+      <c r="AP4" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1070,65 +1109,74 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="4"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="4">
+        <v>0</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
+      <c r="AA5" s="4">
+        <v>0</v>
+      </c>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
+      <c r="AH5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI5" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="4"/>
+      <c r="AK5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN5" s="15"/>
       <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
-      <c r="AR5" s="4"/>
-      <c r="AS5" s="4"/>
-      <c r="AT5" s="4"/>
-      <c r="AU5" s="4"/>
-      <c r="AV5" s="4"/>
-      <c r="AW5" s="4"/>
-      <c r="AX5" s="4"/>
-      <c r="AY5" s="4"/>
-      <c r="AZ5" s="4"/>
-      <c r="BA5" s="4"/>
-      <c r="BB5" s="4"/>
-      <c r="BC5" s="4">
+      <c r="AP5" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1137,65 +1185,74 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4" t="s">
         <v>39</v>
       </c>
       <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="4"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
+      <c r="AA6" s="4">
+        <v>0</v>
+      </c>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
+      <c r="AH6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI6" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="4"/>
+      <c r="AK6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN6" s="15"/>
       <c r="AO6" s="4"/>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
-      <c r="AR6" s="4"/>
-      <c r="AS6" s="4"/>
-      <c r="AT6" s="4"/>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="4"/>
-      <c r="AX6" s="4"/>
-      <c r="AY6" s="4"/>
-      <c r="AZ6" s="4"/>
-      <c r="BA6" s="4"/>
-      <c r="BB6" s="4"/>
-      <c r="BC6" s="4">
+      <c r="AP6" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1204,65 +1261,74 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="s">
         <v>39</v>
       </c>
       <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="4"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
+      <c r="AA7" s="4">
+        <v>0</v>
+      </c>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
+      <c r="AH7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI7" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
+      <c r="AK7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN7" s="15"/>
       <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="4"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="4"/>
-      <c r="BB7" s="4"/>
-      <c r="BC7" s="4">
+      <c r="AP7" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1271,65 +1337,74 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
         <v>39</v>
       </c>
       <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="4"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
+      <c r="AA8" s="4">
+        <v>0</v>
+      </c>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
+      <c r="AH8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI8" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
+      <c r="AK8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN8" s="15"/>
       <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
-      <c r="AY8" s="4"/>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="4"/>
-      <c r="BB8" s="4"/>
-      <c r="BC8" s="4">
+      <c r="AP8" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1338,65 +1413,74 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
         <v>39</v>
       </c>
       <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="4"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
+      <c r="AA9" s="4">
+        <v>0</v>
+      </c>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
+      <c r="AH9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI9" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="4"/>
+      <c r="AK9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN9" s="15"/>
       <c r="AO9" s="4"/>
-      <c r="AP9" s="4"/>
-      <c r="AQ9" s="4"/>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="4"/>
-      <c r="AT9" s="4"/>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="4"/>
-      <c r="AW9" s="4"/>
-      <c r="AX9" s="4"/>
-      <c r="AY9" s="4"/>
-      <c r="AZ9" s="4"/>
-      <c r="BA9" s="4"/>
-      <c r="BB9" s="4"/>
-      <c r="BC9" s="4">
+      <c r="AP9" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1405,65 +1489,74 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4" t="s">
         <v>39</v>
       </c>
       <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="4"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
+      <c r="AA10" s="4">
+        <v>0</v>
+      </c>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
+      <c r="AH10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI10" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="AJ10" s="4"/>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="4"/>
-      <c r="AM10" s="4"/>
-      <c r="AN10" s="4"/>
+      <c r="AK10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN10" s="15"/>
       <c r="AO10" s="4"/>
-      <c r="AP10" s="4"/>
-      <c r="AQ10" s="4"/>
-      <c r="AR10" s="4"/>
-      <c r="AS10" s="4"/>
-      <c r="AT10" s="4"/>
-      <c r="AU10" s="4"/>
-      <c r="AV10" s="4"/>
-      <c r="AW10" s="4"/>
-      <c r="AX10" s="4"/>
-      <c r="AY10" s="4"/>
-      <c r="AZ10" s="4"/>
-      <c r="BA10" s="4"/>
-      <c r="BB10" s="4"/>
-      <c r="BC10" s="4">
+      <c r="AP10" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1472,65 +1565,74 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4" t="s">
         <v>39</v>
       </c>
       <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="4"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="4">
+        <v>0</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
+      <c r="AA11" s="4">
+        <v>0</v>
+      </c>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
+      <c r="AH11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI11" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="AJ11" s="4"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="4"/>
+      <c r="AK11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN11" s="15"/>
       <c r="AO11" s="4"/>
-      <c r="AP11" s="4"/>
-      <c r="AQ11" s="4"/>
-      <c r="AR11" s="4"/>
-      <c r="AS11" s="4"/>
-      <c r="AT11" s="4"/>
-      <c r="AU11" s="4"/>
-      <c r="AV11" s="4"/>
-      <c r="AW11" s="4"/>
-      <c r="AX11" s="4"/>
-      <c r="AY11" s="4"/>
-      <c r="AZ11" s="4"/>
-      <c r="BA11" s="4"/>
-      <c r="BB11" s="4"/>
-      <c r="BC11" s="4">
+      <c r="AP11" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1539,65 +1641,74 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
         <v>39</v>
       </c>
       <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="4"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="W12" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
+      <c r="AA12" s="4">
+        <v>0</v>
+      </c>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
+      <c r="AH12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI12" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
+      <c r="AK12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN12" s="15"/>
       <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="4"/>
-      <c r="AT12" s="4"/>
-      <c r="AU12" s="4"/>
-      <c r="AV12" s="4"/>
-      <c r="AW12" s="4"/>
-      <c r="AX12" s="4"/>
-      <c r="AY12" s="4"/>
-      <c r="AZ12" s="4"/>
-      <c r="BA12" s="4"/>
-      <c r="BB12" s="4"/>
-      <c r="BC12" s="4">
+      <c r="AP12" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1606,65 +1717,74 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
         <v>39</v>
       </c>
       <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="4"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="W13" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
+      <c r="AA13" s="4">
+        <v>0</v>
+      </c>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
+      <c r="AH13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI13" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="AJ13" s="4"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="4"/>
-      <c r="AM13" s="4"/>
-      <c r="AN13" s="4"/>
+      <c r="AK13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM13" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN13" s="15"/>
       <c r="AO13" s="4"/>
-      <c r="AP13" s="4"/>
-      <c r="AQ13" s="4"/>
-      <c r="AR13" s="4"/>
-      <c r="AS13" s="4"/>
-      <c r="AT13" s="4"/>
-      <c r="AU13" s="4"/>
-      <c r="AV13" s="4"/>
-      <c r="AW13" s="4"/>
-      <c r="AX13" s="4"/>
-      <c r="AY13" s="4"/>
-      <c r="AZ13" s="4"/>
-      <c r="BA13" s="4"/>
-      <c r="BB13" s="4"/>
-      <c r="BC13" s="4">
+      <c r="AP13" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1673,65 +1793,74 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
         <v>39</v>
       </c>
       <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="4"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="W14" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
+      <c r="AA14" s="4">
+        <v>0</v>
+      </c>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
+      <c r="AH14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI14" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="AJ14" s="4"/>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="4"/>
-      <c r="AM14" s="4"/>
-      <c r="AN14" s="4"/>
+      <c r="AK14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN14" s="15"/>
       <c r="AO14" s="4"/>
-      <c r="AP14" s="4"/>
-      <c r="AQ14" s="4"/>
-      <c r="AR14" s="4"/>
-      <c r="AS14" s="4"/>
-      <c r="AT14" s="4"/>
-      <c r="AU14" s="4"/>
-      <c r="AV14" s="4"/>
-      <c r="AW14" s="4"/>
-      <c r="AX14" s="4"/>
-      <c r="AY14" s="4"/>
-      <c r="AZ14" s="4"/>
-      <c r="BA14" s="4"/>
-      <c r="BB14" s="4"/>
-      <c r="BC14" s="4">
+      <c r="AP14" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1740,65 +1869,74 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
         <v>39</v>
       </c>
       <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="4"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="4">
+        <v>0</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="W15" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
+      <c r="AA15" s="4">
+        <v>0</v>
+      </c>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
+      <c r="AH15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI15" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="AJ15" s="4"/>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="4"/>
-      <c r="AM15" s="4"/>
-      <c r="AN15" s="4"/>
+      <c r="AK15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM15" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN15" s="15"/>
       <c r="AO15" s="4"/>
-      <c r="AP15" s="4"/>
-      <c r="AQ15" s="4"/>
-      <c r="AR15" s="4"/>
-      <c r="AS15" s="4"/>
-      <c r="AT15" s="4"/>
-      <c r="AU15" s="4"/>
-      <c r="AV15" s="4"/>
-      <c r="AW15" s="4"/>
-      <c r="AX15" s="4"/>
-      <c r="AY15" s="4"/>
-      <c r="AZ15" s="4"/>
-      <c r="BA15" s="4"/>
-      <c r="BB15" s="4"/>
-      <c r="BC15" s="4">
+      <c r="AP15" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1807,154 +1945,142 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
         <v>39</v>
       </c>
       <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="4"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="4">
+        <v>0</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="W16" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
+      <c r="AA16" s="4">
+        <v>0</v>
+      </c>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
+      <c r="AH16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI16" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="AJ16" s="4"/>
-      <c r="AK16" s="4"/>
-      <c r="AL16" s="4"/>
-      <c r="AM16" s="4"/>
-      <c r="AN16" s="4"/>
+      <c r="AK16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN16" s="15"/>
       <c r="AO16" s="4"/>
-      <c r="AP16" s="4"/>
-      <c r="AQ16" s="4"/>
-      <c r="AR16" s="4"/>
-      <c r="AS16" s="4"/>
-      <c r="AT16" s="4"/>
-      <c r="AU16" s="4"/>
-      <c r="AV16" s="4"/>
-      <c r="AW16" s="4"/>
-      <c r="AX16" s="4"/>
-      <c r="AY16" s="4"/>
-      <c r="AZ16" s="4"/>
-      <c r="BA16" s="4"/>
-      <c r="BB16" s="4"/>
-      <c r="BC16" s="4">
+      <c r="AP16" s="4">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="85">
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="G3:J3"/>
+  <mergeCells count="64">
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AM10:AN10"/>
+    <mergeCell ref="AM11:AN11"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AM13:AN13"/>
+    <mergeCell ref="AM14:AN14"/>
+    <mergeCell ref="AM15:AN15"/>
+    <mergeCell ref="AM16:AN16"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="AY3:AZ3"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="BA2" r:id="rId1" xr:uid="{C68EC245-EC84-4475-AA3A-899D4A93B15E}"/>
+    <hyperlink ref="AO2" r:id="rId1" xr:uid="{C68EC245-EC84-4475-AA3A-899D4A93B15E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
